--- a/Offline/BusinessManagement/Information/Anodiam-Info/Attendance-Details/Rahul-Ganguly-Students-Attendance.xlsx
+++ b/Offline/BusinessManagement/Information/Anodiam-Info/Attendance-Details/Rahul-Ganguly-Students-Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Information\Anodiam-Info\Attendance-Details\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3A31E1-FFD2-44B8-9240-320A0E83784E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFD4F69-9F47-4715-9FEC-39196E53A6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Student Name</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>Faculty : Rahul Ganguly</t>
   </si>
   <si>
     <t>Faculty Absent</t>
@@ -75,7 +72,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,18 +81,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,24 +109,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,20 +126,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02F6A0F-FCB1-40CB-9AE0-8BBA3FC8AF8D}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,60 +426,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7">
+        <v>45198</v>
+      </c>
+      <c r="E1" s="7">
+        <v>45205</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7">
-        <v>45198</v>
-      </c>
-      <c r="E2" s="7">
-        <v>45205</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -521,30 +483,27 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
